--- a/LOSMST.API/wwwroot/Bảng giá dầu mỡ nhờn.xlsx
+++ b/LOSMST.API/wwwroot/Bảng giá dầu mỡ nhờn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7D50F-48BD-41FB-90C2-5DCF3F0D7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A37EB6-A358-44F7-A861-09F274CBB91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -58,36 +58,24 @@
     <t>Dầu động cơ xe máy</t>
   </si>
   <si>
-    <t>90 ₫</t>
-  </si>
-  <si>
     <t>0001L00220</t>
   </si>
   <si>
     <t>2.2 lít</t>
   </si>
   <si>
-    <t>1.000 ₫</t>
-  </si>
-  <si>
     <t>0001L00240</t>
   </si>
   <si>
     <t>2.4 lít</t>
   </si>
   <si>
-    <t>490 ₫</t>
-  </si>
-  <si>
     <t>0001L00250</t>
   </si>
   <si>
     <t>2.5 lít</t>
   </si>
   <si>
-    <t>9 ₫</t>
-  </si>
-  <si>
     <t>0002H00220</t>
   </si>
   <si>
@@ -98,16 +86,17 @@
   </si>
   <si>
     <t>Dầu động cơ ô tô</t>
-  </si>
-  <si>
-    <t>10 ₫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$VND]\ * #,##0.00_);_([$VND]\ * \(#,##0.00\);_([$VND]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,11 +243,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="44">
@@ -824,8 +812,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -837,7 +826,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -851,22 +839,20 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,8 +871,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1227,42 +1217,43 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1278,109 +1269,110 @@
       <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="42">
+        <v>9000000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="40">
+        <v>490</v>
+      </c>
+      <c r="G4" s="20">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="26">
+        <v>9</v>
+      </c>
+      <c r="G5" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="D6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="33">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="G6" s="41">
         <v>10</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:G6" numberStoredAsText="1"/>
+    <ignoredError sqref="A6:E6 A2:E2 A3:E3 A4:E4 A5:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>